--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/04.TraBH/TBH210322_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/04.TraBH/TBH210322_GpsTayNinh.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -123,13 +123,22 @@
   </si>
   <si>
     <t xml:space="preserve">                                Hà Nội, ngày 22 tháng 03 năm 2021</t>
+  </si>
+  <si>
+    <t>TG102E</t>
+  </si>
+  <si>
+    <t>860906041265601</t>
+  </si>
+  <si>
+    <t>Thiết bị lỏng nguồn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +262,12 @@
     <font>
       <u/>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -654,7 +669,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,6 +784,51 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -823,47 +883,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1242,77 +1272,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="44" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="47" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="47" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="50" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="17"/>
       <c r="F6" s="32"/>
       <c r="G6" s="12"/>
@@ -1321,58 +1351,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1406,25 +1436,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>1</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="30">
-        <v>868183033805826</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="19"/>
@@ -1437,22 +1467,22 @@
         <v>25</v>
       </c>
       <c r="C13" s="30">
-        <v>868183037788465</v>
+        <v>868183033805826</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>3</v>
       </c>
@@ -1460,85 +1490,97 @@
         <v>25</v>
       </c>
       <c r="C14" s="30">
-        <v>868183038574492</v>
+        <v>868183037788465</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>4</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="30">
+        <v>868183038574492</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42" t="s">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="43">
-        <f>SUM(I14:I14)</f>
+      <c r="I16" s="43">
+        <f>SUM(I15:I15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="73" t="s">
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="40" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
@@ -1554,9 +1596,9 @@
     <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="31"/>
       <c r="H21" s="15"/>
@@ -1570,47 +1612,58 @@
       <c r="E22" s="16"/>
       <c r="F22" s="33"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="39" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-    </row>
-    <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.51181102362204722" bottom="3.937007874015748E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
